--- a/Data/Table/Sound.xlsx
+++ b/Data/Table/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15700" activeTab="1"/>
+    <workbookView windowWidth="28940" windowHeight="15020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="音乐音效|Sound|config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
     <t>变量名</t>
   </si>
@@ -872,681 +872,6 @@
   <si>
     <t>增加体力</t>
   </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/hud_add_matchitems</t>
-  </si>
-  <si>
-    <t>hud_add_matchitems</t>
-  </si>
-  <si>
-    <t>增加道具</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Music/decoration/music_decoration</t>
-  </si>
-  <si>
-    <t>music_decoration</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>装修音乐</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Music/match/music_match</t>
-  </si>
-  <si>
-    <t>music_match</t>
-  </si>
-  <si>
-    <t>三消音乐</t>
-  </si>
-  <si>
-    <t>100106</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/panel_close</t>
-  </si>
-  <si>
-    <t>panel_close</t>
-  </si>
-  <si>
-    <t>弹窗关闭</t>
-  </si>
-  <si>
-    <t>100107</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/panel_pop</t>
-  </si>
-  <si>
-    <t>panel_pop</t>
-  </si>
-  <si>
-    <t>弹窗打开</t>
-  </si>
-  <si>
-    <t>100108</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/scene_switch</t>
-  </si>
-  <si>
-    <t>scene_switch</t>
-  </si>
-  <si>
-    <t>场景切换</t>
-  </si>
-  <si>
-    <t>100201</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Room_blueprint</t>
-  </si>
-  <si>
-    <t>Room_blueprint</t>
-  </si>
-  <si>
-    <t>查看蓝图</t>
-  </si>
-  <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Music/decoration/Room_finish</t>
-  </si>
-  <si>
-    <t>Room_finish</t>
-  </si>
-  <si>
-    <t>场景完成</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Room_item_confirm</t>
-  </si>
-  <si>
-    <t>Room_item_confirm</t>
-  </si>
-  <si>
-    <t>装饰物品</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Room_item_select</t>
-  </si>
-  <si>
-    <t>Room_item_select</t>
-  </si>
-  <si>
-    <t>切换物品</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Room_item_tap</t>
-  </si>
-  <si>
-    <t>Room_item_tap</t>
-  </si>
-  <si>
-    <t>选择物品</t>
-  </si>
-  <si>
-    <t>100206</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Room_chapter_unlock</t>
-  </si>
-  <si>
-    <t>Room_chapter_unlock</t>
-  </si>
-  <si>
-    <t>章节解锁</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Level_coins</t>
-  </si>
-  <si>
-    <t>Level_coins</t>
-  </si>
-  <si>
-    <t>关卡完成收集金币</t>
-  </si>
-  <si>
-    <t>100302</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Level_fail</t>
-  </si>
-  <si>
-    <t>Level_fail</t>
-  </si>
-  <si>
-    <t>关卡失败</t>
-  </si>
-  <si>
-    <t>100303</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Level_item</t>
-  </si>
-  <si>
-    <t>Level_item</t>
-  </si>
-  <si>
-    <t>关卡完成生成道具</t>
-  </si>
-  <si>
-    <t>100304</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Level_step</t>
-  </si>
-  <si>
-    <t>Level_step</t>
-  </si>
-  <si>
-    <t>关卡失败进行续命</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Level_succeed</t>
-  </si>
-  <si>
-    <t>Level_succeed</t>
-  </si>
-  <si>
-    <t>关卡完成</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Goal_achieve</t>
-  </si>
-  <si>
-    <t>Goal_achieve</t>
-  </si>
-  <si>
-    <t>单个目标完成</t>
-  </si>
-  <si>
-    <t>100307</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Goal_finish</t>
-  </si>
-  <si>
-    <t>Goal_finish</t>
-  </si>
-  <si>
-    <t>全部目标完成</t>
-  </si>
-  <si>
-    <t>100308</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Goal_in</t>
-  </si>
-  <si>
-    <t>Goal_in</t>
-  </si>
-  <si>
-    <t>目标进场</t>
-  </si>
-  <si>
-    <t>100309</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Goal_out</t>
-  </si>
-  <si>
-    <t>Goal_out</t>
-  </si>
-  <si>
-    <t>目标出场</t>
-  </si>
-  <si>
-    <t>100401</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Brick_des</t>
-  </si>
-  <si>
-    <t>Brick_des</t>
-  </si>
-  <si>
-    <t>碎裂</t>
-  </si>
-  <si>
-    <t>100402</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Brick_Item</t>
-  </si>
-  <si>
-    <t>Brick_Item</t>
-  </si>
-  <si>
-    <t>合成道具</t>
-  </si>
-  <si>
-    <t>100403</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Brick_shuffle</t>
-  </si>
-  <si>
-    <t>Brick_shuffle</t>
-  </si>
-  <si>
-    <t>砖块重洗</t>
-  </si>
-  <si>
-    <t>100501</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_hammer</t>
-  </si>
-  <si>
-    <t>Item_hammer</t>
-  </si>
-  <si>
-    <t>单个消除</t>
-  </si>
-  <si>
-    <t>100502</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_weight</t>
-  </si>
-  <si>
-    <t>Item_weight</t>
-  </si>
-  <si>
-    <t>纵向消除</t>
-  </si>
-  <si>
-    <t>100503</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_cropper</t>
-  </si>
-  <si>
-    <t>Item_cropper</t>
-  </si>
-  <si>
-    <t>横向消除</t>
-  </si>
-  <si>
-    <t>100504</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_tnt</t>
-  </si>
-  <si>
-    <t>Item_tnt</t>
-  </si>
-  <si>
-    <t>3X3消除</t>
-  </si>
-  <si>
-    <t>100505</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_combine</t>
-  </si>
-  <si>
-    <t>Item_combine</t>
-  </si>
-  <si>
-    <t>两个道具合成</t>
-  </si>
-  <si>
-    <t>100506</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_rocket</t>
-  </si>
-  <si>
-    <t>Item_rocket</t>
-  </si>
-  <si>
-    <t>单个火箭</t>
-  </si>
-  <si>
-    <t>100507</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_rocketX2</t>
-  </si>
-  <si>
-    <t>Item_rocketX2</t>
-  </si>
-  <si>
-    <t>两个火箭</t>
-  </si>
-  <si>
-    <t>100508</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_rocketXbomb</t>
-  </si>
-  <si>
-    <t>Item_rocketXbomb</t>
-  </si>
-  <si>
-    <t>火箭+炸弹</t>
-  </si>
-  <si>
-    <t>100509</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_bomb</t>
-  </si>
-  <si>
-    <t>Item_bomb</t>
-  </si>
-  <si>
-    <t>单个炸弹</t>
-  </si>
-  <si>
-    <t>100510</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_bombX2</t>
-  </si>
-  <si>
-    <t>Item_bombX2</t>
-  </si>
-  <si>
-    <t>两个炸弹</t>
-  </si>
-  <si>
-    <t>100511</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_disco_des</t>
-  </si>
-  <si>
-    <t>Item_disco_des</t>
-  </si>
-  <si>
-    <t>色球爆炸</t>
-  </si>
-  <si>
-    <t>100512</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_disco_roll</t>
-  </si>
-  <si>
-    <t>Item_disco_roll</t>
-  </si>
-  <si>
-    <t>辐射同色球</t>
-  </si>
-  <si>
-    <t>100513</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Item_discoX2</t>
-  </si>
-  <si>
-    <t>Item_discoX2</t>
-  </si>
-  <si>
-    <t>两个同色球</t>
-  </si>
-  <si>
-    <t>200001</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_ball_des</t>
-  </si>
-  <si>
-    <t>Obs_ball_des</t>
-  </si>
-  <si>
-    <t>皮球爆破</t>
-  </si>
-  <si>
-    <t>200002</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_chest_des</t>
-  </si>
-  <si>
-    <t>Obs_chest_des</t>
-  </si>
-  <si>
-    <t>木箱碎裂</t>
-  </si>
-  <si>
-    <t>200003</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_chest_plank</t>
-  </si>
-  <si>
-    <t>Obs_chest_plank</t>
-  </si>
-  <si>
-    <t>木板碎裂</t>
-  </si>
-  <si>
-    <t>200004</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_fence</t>
-  </si>
-  <si>
-    <t>Obs_fence</t>
-  </si>
-  <si>
-    <t>铁栅栏断掉</t>
-  </si>
-  <si>
-    <t>200005</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_glass_des</t>
-  </si>
-  <si>
-    <t>Obs_glass_des</t>
-  </si>
-  <si>
-    <t>玻璃碎掉</t>
-  </si>
-  <si>
-    <t>200006</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_pot_des</t>
-  </si>
-  <si>
-    <t>Obs_pot_des</t>
-  </si>
-  <si>
-    <t>茶壶碎掉</t>
-  </si>
-  <si>
-    <t>200007</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_pot_dye</t>
-  </si>
-  <si>
-    <t>Obs_pot_dye</t>
-  </si>
-  <si>
-    <t>茶壶染色</t>
-  </si>
-  <si>
-    <t>200008</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_lamp_des</t>
-  </si>
-  <si>
-    <t>Obs_lamp_des</t>
-  </si>
-  <si>
-    <t>灯碎</t>
-  </si>
-  <si>
-    <t>200009</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_lamp_on</t>
-  </si>
-  <si>
-    <t>Obs_lamp_on</t>
-  </si>
-  <si>
-    <t>灯亮</t>
-  </si>
-  <si>
-    <t>200010</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_bubble_des</t>
-  </si>
-  <si>
-    <t>Obs_bubble_des</t>
-  </si>
-  <si>
-    <t>泡泡破碎</t>
-  </si>
-  <si>
-    <t>200011</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_bubble_spread</t>
-  </si>
-  <si>
-    <t>Obs_bubble_spread</t>
-  </si>
-  <si>
-    <t>泡泡扩散</t>
-  </si>
-  <si>
-    <t>200012</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_safe_bar</t>
-  </si>
-  <si>
-    <t>Obs_safe_bar</t>
-  </si>
-  <si>
-    <t>铁条断掉</t>
-  </si>
-  <si>
-    <t>200013</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_safe_des</t>
-  </si>
-  <si>
-    <t>Obs_safe_des</t>
-  </si>
-  <si>
-    <t>箱子爆掉</t>
-  </si>
-  <si>
-    <t>200014</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_teddy_drop</t>
-  </si>
-  <si>
-    <t>Obs_teddy_drop</t>
-  </si>
-  <si>
-    <t>小熊下落</t>
-  </si>
-  <si>
-    <t>200015</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_toast_bread</t>
-  </si>
-  <si>
-    <t>Obs_toast_bread</t>
-  </si>
-  <si>
-    <t>面包弹出</t>
-  </si>
-  <si>
-    <t>200016</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_toy_des</t>
-  </si>
-  <si>
-    <t>Obs_toy_des</t>
-  </si>
-  <si>
-    <t>积木掉地</t>
-  </si>
-  <si>
-    <t>200017</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_catbox_open</t>
-  </si>
-  <si>
-    <t>Obs_catbox_open</t>
-  </si>
-  <si>
-    <t>雨伞打开</t>
-  </si>
-  <si>
-    <t>200018</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_catbox_des</t>
-  </si>
-  <si>
-    <t>Obs_catbox_des</t>
-  </si>
-  <si>
-    <t>雨伞损坏</t>
-  </si>
-  <si>
-    <t>200019</t>
-  </si>
-  <si>
-    <t>Match3Submodule/Export/Audio/Sound/Obs_bookshelf</t>
-  </si>
-  <si>
-    <t>Obs_bookshelf</t>
-  </si>
-  <si>
-    <t>拿出书本</t>
-  </si>
 </sst>
 </file>
 
@@ -1554,9 +879,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1582,14 +907,29 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF586E75"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1617,61 +957,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1701,8 +988,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,10 +1033,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1738,13 +1057,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF586E75"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1779,31 +1103,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,37 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,109 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,8 +1328,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2014,6 +1338,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2049,30 +1399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2090,163 +1416,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2274,16 +1598,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2949,7 +2267,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2958,12 +2276,12 @@
       <c r="C21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2972,7 +2290,7 @@
       <c r="C22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3039,7 +2357,7 @@
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -3053,7 +2371,7 @@
       <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -3439,16 +2757,16 @@
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:4">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3537,16 +2855,16 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3641,7 +2959,7 @@
       <c r="B70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -3655,7 +2973,7 @@
       <c r="B71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -3669,7 +2987,7 @@
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="11" t="s">
         <v>216</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -3739,7 +3057,7 @@
       <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -3753,7 +3071,7 @@
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>233</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -3767,7 +3085,7 @@
       <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -3775,86 +3093,86 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="B80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="14" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="18" t="s">
+      <c r="B84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="15" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3868,13 +3186,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="$A7:$XFD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="7.69230769230769" customWidth="1"/>
     <col min="2" max="2" width="72.3076923076923" customWidth="1"/>
@@ -3985,958 +3303,6 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>343</v>
-      </c>
-      <c r="B24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" t="s">
-        <v>348</v>
-      </c>
-      <c r="C25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>351</v>
-      </c>
-      <c r="B26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" t="s">
-        <v>353</v>
-      </c>
-      <c r="D26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>363</v>
-      </c>
-      <c r="B29" t="s">
-        <v>364</v>
-      </c>
-      <c r="C29" t="s">
-        <v>365</v>
-      </c>
-      <c r="D29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B30" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" t="s">
-        <v>369</v>
-      </c>
-      <c r="D30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>371</v>
-      </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" t="s">
-        <v>373</v>
-      </c>
-      <c r="D31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>375</v>
-      </c>
-      <c r="B32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B33" t="s">
-        <v>380</v>
-      </c>
-      <c r="C33" t="s">
-        <v>381</v>
-      </c>
-      <c r="D33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>383</v>
-      </c>
-      <c r="B34" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D34" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" t="s">
-        <v>389</v>
-      </c>
-      <c r="D35" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" t="s">
-        <v>264</v>
-      </c>
-      <c r="E36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" t="s">
-        <v>264</v>
-      </c>
-      <c r="E37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>399</v>
-      </c>
-      <c r="B38" t="s">
-        <v>400</v>
-      </c>
-      <c r="C38" t="s">
-        <v>401</v>
-      </c>
-      <c r="D38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" t="s">
-        <v>404</v>
-      </c>
-      <c r="C39" t="s">
-        <v>405</v>
-      </c>
-      <c r="D39" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" t="s">
-        <v>408</v>
-      </c>
-      <c r="C40" t="s">
-        <v>409</v>
-      </c>
-      <c r="D40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" t="s">
-        <v>413</v>
-      </c>
-      <c r="D41" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>415</v>
-      </c>
-      <c r="B42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C42" t="s">
-        <v>417</v>
-      </c>
-      <c r="D42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>419</v>
-      </c>
-      <c r="B43" t="s">
-        <v>420</v>
-      </c>
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D43" t="s">
-        <v>264</v>
-      </c>
-      <c r="E43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" t="s">
-        <v>424</v>
-      </c>
-      <c r="C44" t="s">
-        <v>425</v>
-      </c>
-      <c r="D44" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" t="s">
-        <v>428</v>
-      </c>
-      <c r="C45" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>431</v>
-      </c>
-      <c r="B46" t="s">
-        <v>432</v>
-      </c>
-      <c r="C46" t="s">
-        <v>433</v>
-      </c>
-      <c r="D46" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" t="s">
-        <v>436</v>
-      </c>
-      <c r="C47" t="s">
-        <v>437</v>
-      </c>
-      <c r="D47" t="s">
-        <v>264</v>
-      </c>
-      <c r="E47" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" t="s">
-        <v>440</v>
-      </c>
-      <c r="C48" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E48" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>443</v>
-      </c>
-      <c r="B49" t="s">
-        <v>444</v>
-      </c>
-      <c r="C49" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" t="s">
-        <v>264</v>
-      </c>
-      <c r="E49" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>447</v>
-      </c>
-      <c r="B50" t="s">
-        <v>448</v>
-      </c>
-      <c r="C50" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>451</v>
-      </c>
-      <c r="B51" t="s">
-        <v>452</v>
-      </c>
-      <c r="C51" t="s">
-        <v>453</v>
-      </c>
-      <c r="D51" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>455</v>
-      </c>
-      <c r="B52" t="s">
-        <v>456</v>
-      </c>
-      <c r="C52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D52" t="s">
-        <v>264</v>
-      </c>
-      <c r="E52" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>459</v>
-      </c>
-      <c r="B53" t="s">
-        <v>460</v>
-      </c>
-      <c r="C53" t="s">
-        <v>461</v>
-      </c>
-      <c r="D53" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>463</v>
-      </c>
-      <c r="B54" t="s">
-        <v>464</v>
-      </c>
-      <c r="C54" t="s">
-        <v>465</v>
-      </c>
-      <c r="D54" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B55" t="s">
-        <v>468</v>
-      </c>
-      <c r="C55" t="s">
-        <v>469</v>
-      </c>
-      <c r="D55" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>471</v>
-      </c>
-      <c r="B56" t="s">
-        <v>472</v>
-      </c>
-      <c r="C56" t="s">
-        <v>473</v>
-      </c>
-      <c r="D56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>475</v>
-      </c>
-      <c r="B57" t="s">
-        <v>476</v>
-      </c>
-      <c r="C57" t="s">
-        <v>477</v>
-      </c>
-      <c r="D57" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>479</v>
-      </c>
-      <c r="B58" t="s">
-        <v>480</v>
-      </c>
-      <c r="C58" t="s">
-        <v>481</v>
-      </c>
-      <c r="D58" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>483</v>
-      </c>
-      <c r="B59" t="s">
-        <v>484</v>
-      </c>
-      <c r="C59" t="s">
-        <v>485</v>
-      </c>
-      <c r="D59" t="s">
-        <v>264</v>
-      </c>
-      <c r="E59" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>487</v>
-      </c>
-      <c r="B60" t="s">
-        <v>488</v>
-      </c>
-      <c r="C60" t="s">
-        <v>489</v>
-      </c>
-      <c r="D60" t="s">
-        <v>264</v>
-      </c>
-      <c r="E60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>491</v>
-      </c>
-      <c r="B61" t="s">
-        <v>492</v>
-      </c>
-      <c r="C61" t="s">
-        <v>493</v>
-      </c>
-      <c r="D61" t="s">
-        <v>264</v>
-      </c>
-      <c r="E61" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>495</v>
-      </c>
-      <c r="B62" t="s">
-        <v>496</v>
-      </c>
-      <c r="C62" t="s">
-        <v>497</v>
-      </c>
-      <c r="D62" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" t="s">
-        <v>498</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Data/Table/Sound.xlsx
+++ b/Data/Table/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28940" windowHeight="15020" activeTab="1"/>
+    <workbookView windowWidth="28640" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="音乐音效|Sound|config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
   <si>
     <t>变量名</t>
   </si>
@@ -41,12 +41,30 @@
     <t>remark</t>
   </si>
   <si>
+    <t>anwser_right</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>anwser_wrong</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>explain_show</t>
+  </si>
+  <si>
+    <t>next_level</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
     <t>sfx_common_btn</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>se_tongyong_01</t>
   </si>
   <si>
@@ -206,24 +224,7 @@
     <t>照片列表打开、关闭照片</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF586E75"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF586E75"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fx_turntable01</t>
-    </r>
+    <t>sfx_turntable01</t>
   </si>
   <si>
     <t>turntable01</t>
@@ -232,24 +233,7 @@
     <t>普通转盘转动</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF586E75"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF586E75"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fx_turntable02</t>
-    </r>
+    <t>sfx_turntable02</t>
   </si>
   <si>
     <t>turntable02</t>
@@ -880,10 +864,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,21 +884,71 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF586E75"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,6 +962,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -936,7 +986,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,55 +1000,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,38 +1016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,19 +1033,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF586E75"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,19 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,19 +1092,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,151 +1242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,11 +1299,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,26 +1340,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,170 +1387,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,37 +1557,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1972,13 +1930,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
@@ -2018,1163 +1976,1330 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D32" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D37" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D38" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D39" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D40" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D41" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D42" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D43" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D44" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D45" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D46" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D47" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D48" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D49" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D50" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D51" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D52" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D53" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D54" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D55" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D56" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D57" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D58" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D59" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="B60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D60" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D61" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:4">
-      <c r="A56" s="12" t="s">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A62" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="B62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="B63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D63" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:5">
+      <c r="A64" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D64" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D65" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D66" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="B67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="D67" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="B68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
+      <c r="D68" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="B69" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D70" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D71" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D72" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D73" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D74" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D75" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="10" t="s">
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="B77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="8" t="s">
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D79" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="B80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D80" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="10" t="s">
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="6" t="s">
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="B82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
+      <c r="D82" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="14" t="s">
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="B83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
+      <c r="D83" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="14" t="s">
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="B84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="14" t="s">
+      <c r="B85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D85" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="14" t="s">
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="14" t="s">
+      <c r="B86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D86" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="15" t="s">
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="B87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="16" t="s">
+      <c r="D87" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="17" t="s">
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="16" t="s">
+      <c r="B88" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="D88" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="16" t="s">
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="16" t="s">
+      <c r="B89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="16" t="s">
+      <c r="D89" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D90" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="B91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3188,7 +3313,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="$A7:$XFD62"/>
     </sheetView>
   </sheetViews>
@@ -3203,16 +3328,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3220,24 +3345,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -3254,53 +3379,53 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
         <v>270</v>
       </c>
-      <c r="B6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" t="s">
-        <v>264</v>
-      </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
